--- a/teaching/traditional_assets/database/data/tanzania/tanzania_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/tanzania/tanzania_financial_svcs_non_bank_insurance.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.3346303501945526</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3346303501945526</v>
       </c>
       <c r="I2">
-        <v>0.2808362369337979</v>
+        <v>0.166147859922179</v>
       </c>
       <c r="J2">
-        <v>0.2685612755843736</v>
+        <v>0.1654094249891915</v>
       </c>
       <c r="K2">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="L2">
-        <v>0.5017421602787456</v>
+        <v>0.5214007782101168</v>
       </c>
       <c r="M2">
-        <v>0.436</v>
+        <v>0.765</v>
       </c>
       <c r="N2">
-        <v>0.04274509803921569</v>
+        <v>0.08462389380530974</v>
       </c>
       <c r="O2">
-        <v>0.3027777777777778</v>
+        <v>0.5708955223880596</v>
       </c>
       <c r="P2">
-        <v>0.436</v>
+        <v>0.765</v>
       </c>
       <c r="Q2">
-        <v>0.04274509803921569</v>
+        <v>0.08462389380530974</v>
       </c>
       <c r="R2">
-        <v>0.3027777777777778</v>
+        <v>0.5708955223880596</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,31 +633,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.237</v>
+        <v>0.171</v>
       </c>
       <c r="V2">
-        <v>0.02323529411764706</v>
+        <v>0.01891592920353983</v>
       </c>
       <c r="W2">
-        <v>0.1716328963051251</v>
+        <v>0.1420996818663839</v>
       </c>
       <c r="X2">
-        <v>0.0336177654821728</v>
+        <v>0.02580261134732567</v>
       </c>
       <c r="Y2">
-        <v>0.1380151308229523</v>
+        <v>0.1162970705190582</v>
       </c>
       <c r="Z2">
-        <v>0.3497867154174284</v>
+        <v>0.2795605351898183</v>
       </c>
       <c r="AA2">
-        <v>0.09393916647497286</v>
+        <v>0.04624194737541849</v>
       </c>
       <c r="AB2">
-        <v>0.0336177654821728</v>
+        <v>0.02580261134732567</v>
       </c>
       <c r="AC2">
-        <v>0.06032140099280006</v>
+        <v>0.02043933602809282</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.237</v>
+        <v>-0.171</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.02378801565793436</v>
+        <v>-0.01928064043296877</v>
       </c>
       <c r="AK2">
-        <v>-0.02578048515174589</v>
+        <v>-0.01768538628606888</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.597</v>
+        <v>-0.707</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.2791519434628975</v>
+        <v>-0.3263358778625954</v>
       </c>
       <c r="AQ2">
-        <v>-1.350083752093802</v>
+        <v>-0.6039603960396039</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dar es Salaam Stock Exchange PLC (DAR:DSE)</t>
+          <t>Dar es Salaam Stock Exchange Plc (DAR:DSE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,40 +716,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.3346303501945526</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3346303501945526</v>
       </c>
       <c r="I3">
-        <v>0.2808362369337979</v>
+        <v>0.166147859922179</v>
       </c>
       <c r="J3">
-        <v>0.2685612755843736</v>
+        <v>0.1654094249891915</v>
       </c>
       <c r="K3">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="L3">
-        <v>0.5017421602787456</v>
+        <v>0.5214007782101168</v>
       </c>
       <c r="M3">
-        <v>0.436</v>
+        <v>0.765</v>
       </c>
       <c r="N3">
-        <v>0.04274509803921569</v>
+        <v>0.08462389380530974</v>
       </c>
       <c r="O3">
-        <v>0.3027777777777778</v>
+        <v>0.5708955223880596</v>
       </c>
       <c r="P3">
-        <v>0.436</v>
+        <v>0.765</v>
       </c>
       <c r="Q3">
-        <v>0.04274509803921569</v>
+        <v>0.08462389380530974</v>
       </c>
       <c r="R3">
-        <v>0.3027777777777778</v>
+        <v>0.5708955223880596</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -758,31 +758,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.237</v>
+        <v>0.171</v>
       </c>
       <c r="V3">
-        <v>0.02323529411764706</v>
+        <v>0.01891592920353983</v>
       </c>
       <c r="W3">
-        <v>0.1716328963051251</v>
+        <v>0.1420996818663839</v>
       </c>
       <c r="X3">
-        <v>0.0336177654821728</v>
+        <v>0.02580261134732567</v>
       </c>
       <c r="Y3">
-        <v>0.1380151308229523</v>
+        <v>0.1162970705190582</v>
       </c>
       <c r="Z3">
-        <v>0.3497867154174284</v>
+        <v>0.2795605351898183</v>
       </c>
       <c r="AA3">
-        <v>0.09393916647497286</v>
+        <v>0.04624194737541849</v>
       </c>
       <c r="AB3">
-        <v>0.0336177654821728</v>
+        <v>0.02580261134732567</v>
       </c>
       <c r="AC3">
-        <v>0.06032140099280006</v>
+        <v>0.02043933602809282</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.237</v>
+        <v>-0.171</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -803,25 +803,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.02378801565793436</v>
+        <v>-0.01928064043296877</v>
       </c>
       <c r="AK3">
-        <v>-0.02578048515174589</v>
+        <v>-0.01768538628606888</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.597</v>
+        <v>-0.707</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.2791519434628975</v>
+        <v>-0.3263358778625954</v>
       </c>
       <c r="AQ3">
-        <v>-1.350083752093802</v>
+        <v>-0.6039603960396039</v>
       </c>
     </row>
   </sheetData>
